--- a/ExGcontrast.xlsx
+++ b/ExGcontrast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/hjin5_unl_edu/Documents/sorghum_nitrogen/result0325/0925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048A9591B7D6C5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9FBC7F-A9F5-4016-8819-0D91100702EE}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048A9591B7D6C5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA265B3-7766-4928-94D4-3BB208FBDEB2}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="3960" windowWidth="11820" windowHeight="18045" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxExG" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t>contrast</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>WT-Res vs Edit5-Res</t>
+  </si>
+  <si>
+    <t>HN vs LN</t>
   </si>
 </sst>
 </file>
@@ -434,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" activeCellId="4" sqref="F2 F3 F15 F17 F18"/>
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -482,7 +485,7 @@
         <v>4.0880142571128001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -502,7 +505,7 @@
         <v>2.5030773205992101E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -522,7 +525,7 @@
         <v>0.468350326126387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -542,7 +545,7 @@
         <v>0.91784921876219805</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -562,7 +565,7 @@
         <v>0.46052663419041001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -582,7 +585,7 @@
         <v>8.64054383659352E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0.63708526187518999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -622,7 +625,7 @@
         <v>0.174649397905834</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -642,7 +645,7 @@
         <v>0.83824848341816505</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -662,7 +665,7 @@
         <v>0.95463449066166595</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -682,7 +685,7 @@
         <v>0.15919227796948501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -702,7 +705,7 @@
         <v>9.0179995498335094E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -722,7 +725,7 @@
         <v>0.64993460278413695</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -742,7 +745,7 @@
         <v>4.5010308707911201E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -762,7 +765,7 @@
         <v>0.189356012356728</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -782,7 +785,7 @@
         <v>3.3141738479838402E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -802,7 +805,7 @@
         <v>3.2067650569499798E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -822,7 +825,7 @@
         <v>0.18886247429442399</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0.64393877158598101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0.94302915744930005</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -880,6 +883,26 @@
       </c>
       <c r="F22">
         <v>0.57330836304496602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>33177.352366666702</v>
+      </c>
+      <c r="C23">
+        <v>16404.804152434699</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>2.0224168516966201</v>
+      </c>
+      <c r="F23">
+        <v>5.4413631590805603E-2</v>
       </c>
     </row>
   </sheetData>
@@ -889,15 +912,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2486CFD0-3FB6-49F1-9CF8-17326992B7E1}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" activeCellId="2" sqref="F4 F12 F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -937,7 +960,7 @@
         <v>0.17751629300275601</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -957,7 +980,7 @@
         <v>0.11872222801017</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +1000,7 @@
         <v>2.7780829412735901E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1020,7 @@
         <v>0.41965259213281397</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1040,7 @@
         <v>0.23066863066864901</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>0.56912081808653903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1080,7 @@
         <v>0.975665490538969</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>0.97599027184443299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1120,7 @@
         <v>0.86156685744393302</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1140,7 @@
         <v>0.87796616968713803</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>1.4114085061694299E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1180,7 @@
         <v>0.50267396566572997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>0.299762767387595</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1220,7 @@
         <v>0.74054214680807595</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1240,7 @@
         <v>1.2869047955683299E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1260,7 @@
         <v>0.128949046040405</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>0.177124418482771</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1300,7 @@
         <v>0.27282371303054498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>0.115122713648417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>0.48743444523620499</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1335,6 +1358,26 @@
       </c>
       <c r="F22">
         <v>0.45471142594605801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>46.364920073333401</v>
+      </c>
+      <c r="C23">
+        <v>11.426370763451001</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>4.05771185209906</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.5536108812006202E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1344,18 +1387,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA05B8C3-9778-4FCD-B973-0FC93B0E050C}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1438,7 @@
         <v>0.46692346803269402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1458,7 @@
         <v>0.486379500849973</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1478,7 @@
         <v>0.21192783651585001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1498,7 @@
         <v>4.1178191165879398E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1518,7 @@
         <v>0.37505558426321101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1538,7 @@
         <v>0.11658511410182</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1558,7 @@
         <v>0.110274936374285</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1578,7 @@
         <v>6.6926880546305297E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1598,7 @@
         <v>0.21914420416621599</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1618,7 @@
         <v>0.43041528286307901</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1595,7 +1638,7 @@
         <v>6.35930680321658E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1658,7 @@
         <v>0.67654276878945996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1678,7 @@
         <v>0.33032028607083902</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1655,7 +1698,7 @@
         <v>0.797671571415277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +1718,7 @@
         <v>7.6083228964323195E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1738,7 @@
         <v>5.1784014269892299E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1715,7 +1758,7 @@
         <v>0.107136683349651</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1778,7 @@
         <v>0.50758640692144197</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1798,7 @@
         <v>0.24493029993756099</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +1818,7 @@
         <v>0.18956910123837201</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1793,6 +1836,26 @@
       </c>
       <c r="F22">
         <v>0.94318821402338104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>27.686784930000101</v>
+      </c>
+      <c r="C23">
+        <v>7.81636777870711</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>3.5421548363451798</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.65971444217679E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1865,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70052D85-730D-4101-B930-57A70CD7F94D}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" activeCellId="4" sqref="F2 F3 F7 F9 F15"/>
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1916,7 @@
         <v>2.1305354334684399E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1936,7 @@
         <v>1.9583978683540601E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1956,7 @@
         <v>0.87061471185619599</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +1976,7 @@
         <v>7.0975478298116401E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1996,7 @@
         <v>0.73412006703094002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +2016,7 @@
         <v>1.27972415515078E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +2036,7 @@
         <v>0.32274523493500201</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +2056,7 @@
         <v>4.5893639448161903E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2076,7 @@
         <v>0.48935596569192502</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2096,7 @@
         <v>0.76183738546240598</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2116,7 @@
         <v>0.86393320743086</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2073,7 +2136,7 @@
         <v>0.148244906439398</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2156,7 @@
         <v>0.19969465622114899</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2176,7 @@
         <v>4.5085140466451602E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2196,7 @@
         <v>0.32065881451534001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2153,7 +2216,7 @@
         <v>0.418397475794551</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2236,7 @@
         <v>0.25003305283131799</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2193,7 +2256,7 @@
         <v>0.30193555859371102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2276,7 @@
         <v>0.18262160107620101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2233,7 +2296,7 @@
         <v>0.409447804736014</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2251,6 +2314,26 @@
       </c>
       <c r="F22">
         <v>0.64984306521933199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>-196.98121933333201</v>
+      </c>
+      <c r="C23">
+        <v>673.90769491605897</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>-0.29229703239679899</v>
+      </c>
+      <c r="F23">
+        <v>0.77257149993784702</v>
       </c>
     </row>
   </sheetData>
